--- a/Synthèse-Experiences/ExperimentsMAJvendredimatin.xlsx
+++ b/Synthèse-Experiences/ExperimentsMAJvendredimatin.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacData/Users/clemencebriosnefrejaville/Desktop/GitHubAustralie/Synthèse-Experiences/"/>
@@ -298,66 +298,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Total12 charge </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14.4"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Total11 charge </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14.4"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Totale charge32 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14.4"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>μC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Total31 charge </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14.4"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>μC</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Line</t>
     </r>
     <r>
@@ -387,8 +327,53 @@
     </r>
   </si>
   <si>
+    <t>10µm – 1pA (5)</t>
+  </si>
+  <si>
+    <t>Area/Line step size (𝝁m)</t>
+  </si>
+  <si>
+    <t>high step dose</t>
+  </si>
+  <si>
+    <t>Position U</t>
+  </si>
+  <si>
+    <t>Position V</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>Probleme de design: 1 2 6 1 1 1</t>
+  </si>
+  <si>
+    <t>1 point à travers tout df =100</t>
+  </si>
+  <si>
+    <t>dose3to6</t>
+  </si>
+  <si>
+    <t>dose1to2</t>
+  </si>
+  <si>
     <r>
-      <t>Total21 charge µ</t>
+      <t xml:space="preserve">Totale charge </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>μC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Total charge µ</t>
     </r>
     <r>
       <rPr>
@@ -402,8 +387,14 @@
     </r>
   </si>
   <si>
+    <t>Total charge μC2</t>
+  </si>
+  <si>
+    <t>Total charge µC3</t>
+  </si>
+  <si>
     <r>
-      <t>Total22 charge µ</t>
+      <t xml:space="preserve">Total charge </t>
     </r>
     <r>
       <rPr>
@@ -413,38 +404,11 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>C</t>
+      <t>pC</t>
     </r>
   </si>
   <si>
-    <t>10µm – 1pA (5)</t>
-  </si>
-  <si>
-    <t>Area/Line step size (𝝁m)</t>
-  </si>
-  <si>
-    <t>high step dose</t>
-  </si>
-  <si>
-    <t>Position U</t>
-  </si>
-  <si>
-    <t>Position V</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>Probleme de design: 1 2 6 1 1 1</t>
-  </si>
-  <si>
-    <t>1 point à travers tout df =100</t>
-  </si>
-  <si>
-    <t>dose3to6</t>
-  </si>
-  <si>
-    <t>dose1to2</t>
+    <t>Total charge pC2</t>
   </si>
 </sst>
 </file>
@@ -3349,27 +3313,27 @@
     <tableColumn id="12" name="Area μC/cm^2" dataDxfId="54" totalsRowDxfId="53"/>
     <tableColumn id="13" name="Area/Line step size (𝝁m)" dataDxfId="52" totalsRowDxfId="51"/>
     <tableColumn id="14" name="Min Dot DF" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="15" name="Total11 charge pC" dataDxfId="48" totalsRowDxfId="47">
+    <tableColumn id="15" name="Total charge pC" dataDxfId="48" totalsRowDxfId="47">
       <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Max Dot DF" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="17" name="Total12 charge pC" dataDxfId="44" totalsRowDxfId="43">
+    <tableColumn id="17" name="Total charge pC2" dataDxfId="44" totalsRowDxfId="43">
       <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" name="Min Line DF" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="19" name="Total21 charge µC" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="19" name="Total charge µC" dataDxfId="40" totalsRowDxfId="39">
       <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="20" name="Max Line DF" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="21" name="Total22 charge µC" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="21" name="Total charge µC3" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" name="Min Area DF" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="23" name="Total31 charge μC" dataDxfId="32" totalsRowDxfId="31">
+    <tableColumn id="23" name="Total charge μC2" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" name="Max Area DF" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="25" name="Totale charge32 μC" dataDxfId="28" totalsRowDxfId="27">
+    <tableColumn id="25" name="Totale charge μC" dataDxfId="28" totalsRowDxfId="27">
       <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="26" name="Total hole size" dataDxfId="26" totalsRowDxfId="25"/>
@@ -3725,13 +3689,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuille1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q35" sqref="Q35"/>
+      <selection pane="bottomRight" activeCell="AI24" sqref="AI24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3847,10 +3812,10 @@
         <v>77</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D3" s="62" t="s">
         <v>9</v>
@@ -3880,52 +3845,52 @@
         <v>6</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O3" s="38" t="s">
         <v>79</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>80</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>81</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="U3" s="10" t="s">
         <v>82</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>83</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="Y3" s="8" t="s">
         <v>84</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>85</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AC3" s="47" t="s">
         <v>65</v>
@@ -5504,7 +5469,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C22" s="82">
         <v>2.74</v>
@@ -5522,13 +5487,13 @@
         <v>5</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I22" s="13">
         <v>1</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K22" s="13">
         <v>1</v>
@@ -5582,7 +5547,7 @@
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
       <c r="AF22" s="15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="32" x14ac:dyDescent="0.2">
@@ -5590,7 +5555,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C23" s="82">
         <v>2.7389999999999999</v>
@@ -5609,13 +5574,13 @@
         <v>5</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I23" s="13">
         <v>1</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K23" s="13">
         <v>1</v>
@@ -5675,7 +5640,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C24" s="82">
         <f>C23-0.001</f>
@@ -5695,13 +5660,13 @@
         <v>5</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I24" s="13">
         <v>1</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K24" s="13">
         <v>1</v>
@@ -5761,7 +5726,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C25" s="82">
         <f t="shared" ref="C25:C36" si="1">C24-0.001</f>
@@ -5781,13 +5746,13 @@
         <v>5</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I25" s="13">
         <v>1</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K25" s="13">
         <v>200</v>
@@ -5847,7 +5812,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C26" s="82">
         <v>2.7370000000000001</v>
@@ -5866,13 +5831,13 @@
         <v>5</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I26" s="13">
         <v>1</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K26" s="13">
         <v>200</v>
@@ -5932,7 +5897,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C27" s="82">
         <f t="shared" si="1"/>
@@ -5952,13 +5917,13 @@
         <v>5</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I27" s="13">
         <v>1</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K27" s="13">
         <v>200</v>
@@ -6020,7 +5985,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C28" s="82">
         <f t="shared" si="1"/>
@@ -6040,13 +6005,13 @@
         <v>5</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I28" s="13">
         <v>1</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K28" s="13">
         <v>200</v>
@@ -6106,7 +6071,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C29" s="82">
         <f t="shared" si="1"/>
@@ -6126,13 +6091,13 @@
         <v>5</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I29" s="13">
         <v>1</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K29" s="13">
         <v>200</v>
@@ -6192,7 +6157,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C30" s="82">
         <f t="shared" si="1"/>
@@ -6212,13 +6177,13 @@
         <v>5</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I30" s="13">
         <v>20</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K30" s="13">
         <v>20</v>
@@ -6278,7 +6243,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C31" s="82">
         <f t="shared" si="1"/>
@@ -6298,13 +6263,13 @@
         <v>5</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I31" s="13">
         <v>200</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K31" s="13">
         <v>1</v>
@@ -6364,7 +6329,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C32" s="82">
         <f t="shared" si="1"/>
@@ -6384,13 +6349,13 @@
         <v>5</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I32" s="13">
         <v>10</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K32" s="13">
         <v>20</v>
@@ -6450,7 +6415,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C33" s="82">
         <f t="shared" si="1"/>
@@ -6470,13 +6435,13 @@
         <v>5</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I33" s="43">
         <v>20</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K33" s="43">
         <v>10</v>
@@ -6536,7 +6501,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C34" s="82">
         <f t="shared" si="1"/>
@@ -6556,13 +6521,13 @@
         <v>5</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I34" s="43">
         <v>10</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K34" s="43">
         <v>20</v>
@@ -6622,7 +6587,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C35" s="82">
         <f t="shared" si="1"/>
@@ -6642,13 +6607,13 @@
         <v>5</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I35" s="43">
         <v>6.6666699999999999</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K35" s="43">
         <v>30</v>
@@ -6708,7 +6673,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C36" s="82">
         <f t="shared" si="1"/>
@@ -6728,13 +6693,13 @@
         <v>5</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I36" s="43">
         <v>4</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K36" s="43">
         <v>50</v>
@@ -6819,7 +6784,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K37" s="43">
         <v>20</v>
@@ -7015,6 +6980,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuille2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7341,6 +7307,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuille3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
